--- a/excel/13-09-2024.xlsx
+++ b/excel/13-09-2024.xlsx
@@ -9,18 +9,19 @@
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Output" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="39">
   <si>
     <t xml:space="preserve">Alex</t>
   </si>
@@ -49,40 +50,94 @@
     <t xml:space="preserve">Ozan</t>
   </si>
   <si>
+    <t xml:space="preserve">Tim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anastasia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emmy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabriela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jennifer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laura B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laura M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nadja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matching Night</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paar 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paar 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paar 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paar 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paar 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paar 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paar 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paar 8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paar 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paar 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lichter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marc-Robin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lukas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laura B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linda </t>
+  </si>
+  <si>
     <t xml:space="preserve">Tim </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anastasia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asena</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emmy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabriela</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jennifer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laura Blond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laura Morante</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nadja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tara</t>
   </si>
 </sst>
 </file>
@@ -92,7 +147,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -121,8 +176,15 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -147,13 +209,26 @@
         <bgColor rgb="FF008000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -182,12 +257,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -195,24 +274,32 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -292,53 +379,53 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.66"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="4"/>
@@ -351,10 +438,10 @@
       <c r="I2" s="4"/>
       <c r="J2" s="5"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="6"/>
@@ -367,10 +454,10 @@
       <c r="I3" s="6"/>
       <c r="J3" s="4"/>
       <c r="K3" s="6"/>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="6"/>
@@ -383,10 +470,10 @@
       <c r="I4" s="6"/>
       <c r="J4" s="4"/>
       <c r="K4" s="6"/>
-      <c r="L4" s="3"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="4"/>
@@ -399,10 +486,10 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="6"/>
@@ -415,10 +502,10 @@
       <c r="I6" s="6"/>
       <c r="J6" s="4"/>
       <c r="K6" s="6"/>
-      <c r="L6" s="3"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="7"/>
@@ -431,10 +518,10 @@
       <c r="I7" s="6"/>
       <c r="J7" s="4"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="6"/>
@@ -447,10 +534,10 @@
       <c r="I8" s="6"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="3"/>
+      <c r="L8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="6"/>
@@ -463,10 +550,10 @@
       <c r="I9" s="6"/>
       <c r="J9" s="4"/>
       <c r="K9" s="6"/>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="6"/>
@@ -479,10 +566,10 @@
       <c r="I10" s="6"/>
       <c r="J10" s="4"/>
       <c r="K10" s="6"/>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="6"/>
@@ -495,10 +582,10 @@
       <c r="I11" s="6"/>
       <c r="J11" s="4"/>
       <c r="K11" s="6"/>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="6"/>
@@ -511,29 +598,954 @@
       <c r="I12" s="6"/>
       <c r="J12" s="4"/>
       <c r="K12" s="6"/>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="9"/>
+      <c r="L18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" s="9"/>
+      <c r="N18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O18" s="9"/>
+      <c r="P18" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="S18" s="9"/>
+      <c r="T18" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U18" s="9"/>
+      <c r="V18" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="P19" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q19" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="R19" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S19" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="T19" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="U19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="V19" s="8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="N20" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="P20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q20" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="R20" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="T20" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="U20" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="V20" s="8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="P21" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q21" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="R21" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S21" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="T21" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="U21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="V21" s="8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="O22" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="P22" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q22" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="R22" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="T22" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="U22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="V22" s="8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="N23" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="O23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="P23" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q23" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="R23" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S23" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="T23" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="U23" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="V23" s="8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="N24" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="O24" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="P24" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q24" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="R24" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S24" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="T24" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="U24" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="V24" s="8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="N25" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="O25" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="P25" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q25" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="R25" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S25" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="T25" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="U25" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="V25" s="8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="9"/>
+      <c r="H26" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K26" s="9"/>
+      <c r="L26" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="N26" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="O26" s="9"/>
+      <c r="P26" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S26" s="9"/>
+      <c r="T26" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="9"/>
+      <c r="H27" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K27" s="9"/>
+      <c r="L27" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="N27" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="O27" s="9"/>
+      <c r="P27" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S27" s="9"/>
+      <c r="T27" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="F28" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="9"/>
+      <c r="H28" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K28" s="9"/>
+      <c r="L28" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="N28" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="O28" s="9"/>
+      <c r="P28" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S28" s="9"/>
+      <c r="T28" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="U28" s="9"/>
+      <c r="V28" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.66"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>